--- a/F-Heat_QGIS/data/costs.xlsx
+++ b/F-Heat_QGIS/data/costs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lars_Goray\AppData\Roaming\QGIS\QGIS3\profiles\default\python\plugins\heat_net_tool\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44837EC4-33D8-494B-BCA4-5978BBA7774E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C695D907-8C09-4216-B45C-A7DCD6FAFA28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684" xr2:uid="{CB187417-A205-4705-9999-9FBFDE89F3A6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{CB187417-A205-4705-9999-9FBFDE89F3A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung" sheetId="3" r:id="rId1"/>
@@ -689,6 +689,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -758,30 +782,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1281,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CAD31A-D488-48F9-8381-5023A1748DE7}">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
@@ -1299,103 +1299,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="71"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="68"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="68"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
     </row>
     <row r="11" spans="1:5" ht="14.4" thickBot="1">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="30"/>
@@ -1405,20 +1405,20 @@
       <c r="E12" s="30"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="31"/>
@@ -2037,20 +2037,20 @@
       <c r="E51" s="31"/>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="49"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="57"/>
     </row>
     <row r="53" spans="1:10" ht="14.4" thickBot="1">
-      <c r="A53" s="50"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="52"/>
+      <c r="A53" s="58"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="60"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="2"/>
@@ -2066,12 +2066,12 @@
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
-      <c r="G55" s="40" t="s">
+      <c r="G55" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="25" t="s">
@@ -2345,12 +2345,12 @@
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
-      <c r="G66" s="42" t="s">
+      <c r="G66" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="5" t="s">
@@ -2399,7 +2399,7 @@
       <c r="H68" s="18">
         <v>55</v>
       </c>
-      <c r="I68" s="18">
+      <c r="I68" s="33">
         <f>Zusammenfassung!F2-B68*15</f>
         <v>0</v>
       </c>
@@ -2429,7 +2429,7 @@
       <c r="H69" s="18">
         <v>61</v>
       </c>
-      <c r="I69" s="18">
+      <c r="I69" s="33">
         <f>Zusammenfassung!F3-B69*15</f>
         <v>0</v>
       </c>
@@ -2459,7 +2459,7 @@
       <c r="H70" s="18">
         <v>71</v>
       </c>
-      <c r="I70" s="18">
+      <c r="I70" s="33">
         <f>Zusammenfassung!F4-B70*15</f>
         <v>0</v>
       </c>
@@ -2489,7 +2489,7 @@
       <c r="H71" s="18">
         <v>91</v>
       </c>
-      <c r="I71" s="18">
+      <c r="I71" s="33">
         <f>Zusammenfassung!F5-B71*15</f>
         <v>0</v>
       </c>
@@ -2519,7 +2519,7 @@
       <c r="H72" s="18">
         <v>120</v>
       </c>
-      <c r="I72" s="18">
+      <c r="I72" s="33">
         <f>Zusammenfassung!F6-B72*15</f>
         <v>0</v>
       </c>
@@ -2549,7 +2549,7 @@
       <c r="H73" s="18">
         <v>174</v>
       </c>
-      <c r="I73" s="18">
+      <c r="I73" s="33">
         <f>Zusammenfassung!F7-B73*15</f>
         <v>0</v>
       </c>
@@ -2579,7 +2579,7 @@
       <c r="H74" s="18">
         <v>205</v>
       </c>
-      <c r="I74" s="18">
+      <c r="I74" s="33">
         <f>Zusammenfassung!F8-B74*15</f>
         <v>0</v>
       </c>
@@ -2612,12 +2612,12 @@
       </c>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="53" t="s">
+      <c r="A77" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="54"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="54"/>
+      <c r="B77" s="62"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="62"/>
     </row>
     <row r="88" spans="1:4" ht="39.75" customHeight="1">
       <c r="A88" s="9" t="s">
@@ -2669,30 +2669,30 @@
       <c r="D92" s="15"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="61" t="s">
+      <c r="A93" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="B93" s="62"/>
-      <c r="C93" s="62"/>
-      <c r="D93" s="62"/>
+      <c r="B93" s="70"/>
+      <c r="C93" s="70"/>
+      <c r="D93" s="70"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="63"/>
-      <c r="B94" s="63"/>
-      <c r="C94" s="63"/>
-      <c r="D94" s="63"/>
+      <c r="A94" s="71"/>
+      <c r="B94" s="71"/>
+      <c r="C94" s="71"/>
+      <c r="D94" s="71"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="63"/>
-      <c r="B95" s="63"/>
-      <c r="C95" s="63"/>
-      <c r="D95" s="63"/>
+      <c r="A95" s="71"/>
+      <c r="B95" s="71"/>
+      <c r="C95" s="71"/>
+      <c r="D95" s="71"/>
     </row>
     <row r="96" spans="1:4" ht="14.4" thickBot="1">
-      <c r="A96" s="63"/>
-      <c r="B96" s="63"/>
-      <c r="C96" s="63"/>
-      <c r="D96" s="63"/>
+      <c r="A96" s="71"/>
+      <c r="B96" s="71"/>
+      <c r="C96" s="71"/>
+      <c r="D96" s="71"/>
     </row>
     <row r="97" spans="1:5" ht="14.4" thickBot="1">
       <c r="A97" s="14" t="s">
@@ -2717,47 +2717,37 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="15" customHeight="1">
-      <c r="A102" s="46" t="s">
+      <c r="A102" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B102" s="46"/>
-      <c r="C102" s="46"/>
-      <c r="D102" s="46"/>
-      <c r="E102" s="46"/>
+      <c r="B102" s="54"/>
+      <c r="C102" s="54"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="54"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="46"/>
-      <c r="B103" s="46"/>
-      <c r="C103" s="46"/>
-      <c r="D103" s="46"/>
-      <c r="E103" s="46"/>
+      <c r="A103" s="54"/>
+      <c r="B103" s="54"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="54"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="46"/>
-      <c r="B104" s="46"/>
-      <c r="C104" s="46"/>
-      <c r="D104" s="46"/>
-      <c r="E104" s="46"/>
+      <c r="A104" s="54"/>
+      <c r="B104" s="54"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="54"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="46"/>
-      <c r="B105" s="46"/>
-      <c r="C105" s="46"/>
-      <c r="D105" s="46"/>
-      <c r="E105" s="46"/>
+      <c r="A105" s="54"/>
+      <c r="B105" s="54"/>
+      <c r="C105" s="54"/>
+      <c r="D105" s="54"/>
+      <c r="E105" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A9:E9"/>
     <mergeCell ref="G55:J55"/>
     <mergeCell ref="G66:J66"/>
     <mergeCell ref="A11:E11"/>
@@ -2766,6 +2756,16 @@
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A13:E14"/>
     <mergeCell ref="A93:D96"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2804,6 +2804,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005FFC08842A22284F9348EB74BB1FFD7D" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="dce056f5060a025853d4b9bc213596f2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9f730088-dd1d-44a2-ba0b-9ee662212de1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6eeb49c5830c4bcc108e16c31212bcee" ns3:_="">
     <xsd:import namespace="9f730088-dd1d-44a2-ba0b-9ee662212de1"/>
@@ -2947,15 +2956,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE85EFE4-A7F1-4172-BE99-941086F215B7}">
   <ds:schemaRefs>
@@ -2973,6 +2973,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07D5089C-AFBA-4A9E-A982-3E0DC6ED90E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF99380-8091-4A51-9F6D-B6AAAB8AA62B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2988,12 +2996,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07D5089C-AFBA-4A9E-A982-3E0DC6ED90E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>